--- a/pptx_templates/name_for_pptx_layouts.xlsx
+++ b/pptx_templates/name_for_pptx_layouts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ophirbetser/Ophir/R PROJECTS/pptx_from_R/pptx_templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E70830C-890D-0B4E-9191-75D1F9383CED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{647FE679-B24B-D945-A97C-04058BA4466A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{A4A4ECE3-75BC-F64D-8000-13248C0D9F3C}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="33">
   <si>
     <t>שם לייאוט</t>
   </si>
@@ -43,6 +43,96 @@
   </si>
   <si>
     <t>תפקיד רכיב</t>
+  </si>
+  <si>
+    <t>cover_page</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">עמוד הפתיחה של הדוח, אין שום שכבה מלבד תמונה </t>
+  </si>
+  <si>
+    <t>Office Theme</t>
+  </si>
+  <si>
+    <t>chapter_open</t>
+  </si>
+  <si>
+    <t>עמוד הפתיחה של הפרק, נתונים סטטיסטים כללים על מערכת הבריאות</t>
+  </si>
+  <si>
+    <t>p_0</t>
+  </si>
+  <si>
+    <t>עמוד של טקסט מלא</t>
+  </si>
+  <si>
+    <t>page_number</t>
+  </si>
+  <si>
+    <t>מספר העמוד</t>
+  </si>
+  <si>
+    <t>analysis_number</t>
+  </si>
+  <si>
+    <t>מספר אינדקס הניתוח</t>
+  </si>
+  <si>
+    <t>title_text</t>
+  </si>
+  <si>
+    <t>טקסט עבור כותרת העמוד</t>
+  </si>
+  <si>
+    <t>main_text</t>
+  </si>
+  <si>
+    <t>עיקר הטקסט של העמוד</t>
+  </si>
+  <si>
+    <t>plot_place</t>
+  </si>
+  <si>
+    <t>p_50</t>
+  </si>
+  <si>
+    <t>חצי גרף חצי טקסט</t>
+  </si>
+  <si>
+    <t>מקום לאוביקט של הגרף</t>
+  </si>
+  <si>
+    <t>p_75</t>
+  </si>
+  <si>
+    <t>75 אחוז גרף</t>
+  </si>
+  <si>
+    <t>p_90</t>
+  </si>
+  <si>
+    <t>90 אחוז גרף</t>
+  </si>
+  <si>
+    <t>p_100</t>
+  </si>
+  <si>
+    <t>100 אחוז גרף</t>
+  </si>
+  <si>
+    <t>num_ovdim</t>
+  </si>
+  <si>
+    <t>num_misra</t>
+  </si>
+  <si>
+    <t>sal_mean</t>
+  </si>
+  <si>
+    <t>sal_mid</t>
   </si>
 </sst>
 </file>
@@ -394,15 +484,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB35CA6D-23C7-2E41-874C-EB2CCA3598FC}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="19.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -411,6 +504,290 @@
       </c>
       <c r="C1" t="s">
         <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
+        <v>15</v>
+      </c>
+      <c r="C31" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
+        <v>17</v>
+      </c>
+      <c r="C32" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
+        <v>19</v>
+      </c>
+      <c r="C33" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>27</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B36" t="s">
+        <v>11</v>
+      </c>
+      <c r="C36" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B37" t="s">
+        <v>13</v>
+      </c>
+      <c r="C37" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B38" t="s">
+        <v>15</v>
+      </c>
+      <c r="C38" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B39" t="s">
+        <v>19</v>
+      </c>
+      <c r="C39" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/pptx_templates/name_for_pptx_layouts.xlsx
+++ b/pptx_templates/name_for_pptx_layouts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ophirbetser/Ophir/R PROJECTS/pptx_from_R/pptx_templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{647FE679-B24B-D945-A97C-04058BA4466A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{773AA6E9-C8F0-524A-87D5-EEC301CD4C2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{A4A4ECE3-75BC-F64D-8000-13248C0D9F3C}"/>
   </bookViews>
@@ -487,7 +487,7 @@
   <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
